--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il21-Il21r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il21-Il21r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il21</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +543,40 @@
         <v>0.206475</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2498616666666666</v>
+        <v>0.9270496666666667</v>
       </c>
       <c r="N2">
-        <v>0.7495849999999999</v>
+        <v>2.781149</v>
       </c>
       <c r="O2">
-        <v>0.018587597504699</v>
+        <v>0.05906853381764246</v>
       </c>
       <c r="P2">
-        <v>0.018587597504699</v>
+        <v>0.05906853381764246</v>
       </c>
       <c r="Q2">
-        <v>0.01719672920833333</v>
+        <v>0.06380419330833333</v>
       </c>
       <c r="R2">
-        <v>0.154770562875</v>
+        <v>0.574237739775</v>
       </c>
       <c r="S2">
-        <v>0.018587597504699</v>
+        <v>0.03573091318180353</v>
       </c>
       <c r="T2">
-        <v>0.018587597504699</v>
+        <v>0.03573091318180353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.206475</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>7.015692</v>
       </c>
       <c r="O3">
-        <v>0.1739694085566504</v>
+        <v>0.1490055513588678</v>
       </c>
       <c r="P3">
-        <v>0.1739694085566504</v>
+        <v>0.1490055513588678</v>
       </c>
       <c r="Q3">
         <v>0.1609516673</v>
@@ -635,10 +635,10 @@
         <v>1.4485650057</v>
       </c>
       <c r="S3">
-        <v>0.1739694085566504</v>
+        <v>0.0901343587712394</v>
       </c>
       <c r="T3">
-        <v>0.1739694085566504</v>
+        <v>0.09013435877123936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.206475</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2760796666666667</v>
+        <v>0.422343</v>
       </c>
       <c r="N4">
-        <v>0.8282389999999999</v>
+        <v>1.267029</v>
       </c>
       <c r="O4">
-        <v>0.0205379952502977</v>
+        <v>0.02691029690765713</v>
       </c>
       <c r="P4">
-        <v>0.0205379952502977</v>
+        <v>0.02691029690765712</v>
       </c>
       <c r="Q4">
-        <v>0.01900118305833333</v>
+        <v>0.029067756975</v>
       </c>
       <c r="R4">
-        <v>0.171010647525</v>
+        <v>0.261609812775</v>
       </c>
       <c r="S4">
-        <v>0.0205379952502977</v>
+        <v>0.01627820127502243</v>
       </c>
       <c r="T4">
-        <v>0.0205379952502977</v>
+        <v>0.01627820127502242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.206475</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.577881</v>
+        <v>12.006519</v>
       </c>
       <c r="N5">
-        <v>31.733643</v>
+        <v>36.019557</v>
       </c>
       <c r="O5">
-        <v>0.786904998688353</v>
+        <v>0.7650156179158327</v>
       </c>
       <c r="P5">
-        <v>0.786904998688353</v>
+        <v>0.7650156179158326</v>
       </c>
       <c r="Q5">
-        <v>0.7280226598249999</v>
+        <v>0.8263486701749999</v>
       </c>
       <c r="R5">
-        <v>6.552203938424999</v>
+        <v>7.437138031575</v>
       </c>
       <c r="S5">
-        <v>0.786904998688353</v>
+        <v>0.4627625718773154</v>
       </c>
       <c r="T5">
-        <v>0.786904998688353</v>
+        <v>0.4627625718773152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.044953</v>
+      </c>
+      <c r="H6">
+        <v>0.134859</v>
+      </c>
+      <c r="I6">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J6">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9270496666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.781149</v>
+      </c>
+      <c r="O6">
+        <v>0.05906853381764246</v>
+      </c>
+      <c r="P6">
+        <v>0.05906853381764246</v>
+      </c>
+      <c r="Q6">
+        <v>0.04167366366566667</v>
+      </c>
+      <c r="R6">
+        <v>0.3750629729910001</v>
+      </c>
+      <c r="S6">
+        <v>0.02333762063583893</v>
+      </c>
+      <c r="T6">
+        <v>0.02333762063583893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.044953</v>
+      </c>
+      <c r="H7">
+        <v>0.134859</v>
+      </c>
+      <c r="I7">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J7">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.338564</v>
+      </c>
+      <c r="N7">
+        <v>7.015692</v>
+      </c>
+      <c r="O7">
+        <v>0.1490055513588678</v>
+      </c>
+      <c r="P7">
+        <v>0.1490055513588678</v>
+      </c>
+      <c r="Q7">
+        <v>0.105125467492</v>
+      </c>
+      <c r="R7">
+        <v>0.9461292074280001</v>
+      </c>
+      <c r="S7">
+        <v>0.0588711925876284</v>
+      </c>
+      <c r="T7">
+        <v>0.05887119258762839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.044953</v>
+      </c>
+      <c r="H8">
+        <v>0.134859</v>
+      </c>
+      <c r="I8">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J8">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.422343</v>
+      </c>
+      <c r="N8">
+        <v>1.267029</v>
+      </c>
+      <c r="O8">
+        <v>0.02691029690765713</v>
+      </c>
+      <c r="P8">
+        <v>0.02691029690765712</v>
+      </c>
+      <c r="Q8">
+        <v>0.018985584879</v>
+      </c>
+      <c r="R8">
+        <v>0.170870263911</v>
+      </c>
+      <c r="S8">
+        <v>0.0106320956326347</v>
+      </c>
+      <c r="T8">
+        <v>0.0106320956326347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.044953</v>
+      </c>
+      <c r="H9">
+        <v>0.134859</v>
+      </c>
+      <c r="I9">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J9">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.006519</v>
+      </c>
+      <c r="N9">
+        <v>36.019557</v>
+      </c>
+      <c r="O9">
+        <v>0.7650156179158327</v>
+      </c>
+      <c r="P9">
+        <v>0.7650156179158326</v>
+      </c>
+      <c r="Q9">
+        <v>0.539729048607</v>
+      </c>
+      <c r="R9">
+        <v>4.857561437463001</v>
+      </c>
+      <c r="S9">
+        <v>0.3022530460385174</v>
+      </c>
+      <c r="T9">
+        <v>0.3022530460385173</v>
       </c>
     </row>
   </sheetData>
